--- a/nestor_cortes_analysis.xlsx
+++ b/nestor_cortes_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smaida/Desktop/nestor_cortes_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D7E4C6-BFF0-6D4A-A79E-4C5D6346C72A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3630589-A8C9-2E4E-B066-8B0BCA5F11C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{2B9FD6C6-D350-AB4F-B404-ADA38C81FFC0}"/>
+    <workbookView xWindow="-38400" yWindow="-1700" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2B9FD6C6-D350-AB4F-B404-ADA38C81FFC0}"/>
   </bookViews>
   <sheets>
     <sheet name="cortes_nestor_stats" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,11 @@
     <sheet name="Pitch Mix" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Pitch Mix'!$AE$3:$AE$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Pitch Mix'!$AF$3:$AF$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Pitch Mix'!$AE$3:$AE$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Pitch Mix'!$AF$3:$AF$6</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">cortes_nestor_stats!$A$1:$DT$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -466,28 +462,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Sum of IP</t>
-  </si>
-  <si>
-    <t>Sum of ERA</t>
-  </si>
-  <si>
-    <t>Sum of strikeout</t>
-  </si>
-  <si>
-    <t>Sum of walk</t>
-  </si>
-  <si>
-    <t>Sum of home_run</t>
-  </si>
-  <si>
     <t>K/BB</t>
   </si>
   <si>
     <t>WHIP</t>
-  </si>
-  <si>
-    <t>Sum of WHIP</t>
   </si>
   <si>
     <t>K/9</t>
@@ -584,6 +562,24 @@
   </si>
   <si>
     <t>Cutter AVG V Break</t>
+  </si>
+  <si>
+    <t>Total IP</t>
+  </si>
+  <si>
+    <t>_ERA</t>
+  </si>
+  <si>
+    <t>Total Strikeouts</t>
+  </si>
+  <si>
+    <t>Total Walks</t>
+  </si>
+  <si>
+    <t>Total Home Runs</t>
+  </si>
+  <si>
+    <t>_WHIP</t>
   </si>
 </sst>
 </file>
@@ -712,7 +708,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -990,7 +1004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of IP</c:v>
+                  <c:v>Total IP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1064,7 +1078,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of ERA</c:v>
+                  <c:v>_ERA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1138,7 +1152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of strikeout</c:v>
+                  <c:v>Total Strikeouts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1212,7 +1226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of walk</c:v>
+                  <c:v>Total Walks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1288,7 +1302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of home_run</c:v>
+                  <c:v>Total Home Runs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,7 +1378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of WHIP</c:v>
+                  <c:v>_WHIP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1559,7 +1573,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1573,7 +1587,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1702,6 +1716,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4798,6 +4815,65 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Strikeout and Walk Percentage Over Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -5215,7 +5291,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6166,6 +6242,78 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Contact Quality</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Over Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -6940,7 +7088,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20559,7 +20707,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3B3A5B3-26D8-7A4A-99AD-094BC27DFC7E}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Year">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3B3A5B3-26D8-7A4A-99AD-094BC27DFC7E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Year">
   <location ref="A1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -20739,15 +20887,15 @@
     </i>
   </colItems>
   <dataFields count="6">
-    <dataField name="Sum of IP" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ERA" fld="26" baseField="0" baseItem="0"/>
-    <dataField name="Sum of strikeout" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of walk" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of home_run" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of WHIP" fld="18" baseField="0" baseItem="0"/>
+    <dataField name="Total IP" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="_ERA" fld="26" baseField="0" baseItem="0"/>
+    <dataField name="Total Strikeouts" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Total Walks" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Total Home Runs" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="_WHIP" fld="18" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -20827,394 +20975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE52EAA-FD7E-A848-ACDF-AF1F98B5B35B}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="O2:P6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="124">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="slider AVG H Break" fld="79" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9490DC14-2133-514C-89D4-E6D21A0E2911}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="K2:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="124">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of 4-Seam AVG H Break" fld="71" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of 4-Seam AVG V Break" fld="72" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA1EB7B4-B454-684F-9692-0785A3943393}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA1EB7B4-B454-684F-9692-0785A3943393}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A2:H7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -21482,8 +21243,392 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{141BEBF4-91A1-E741-B721-77B49C230760}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="Y2:Z7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="124">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sinker AVG Spin" fld="102" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{283802F7-DC1A-E246-81B0-96FF8856D307}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="V2:W7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="124">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sinker AVG V Break" fld="104" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06304C71-ABE0-D847-87F0-18A1E3C903C7}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06304C71-ABE0-D847-87F0-18A1E3C903C7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -21659,7 +21804,7 @@
     <dataField name="K/BB%" fld="17" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -21712,211 +21857,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78DA428E-24E2-A949-92D9-3028B6A44903}" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="R2:T7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="124">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="In Zone Contact%" fld="50" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Count of In Zone Swing and Miss" fld="51" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C38E1EF0-D0BE-1449-84A2-395BD0EAEE97}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C38E1EF0-D0BE-1449-84A2-395BD0EAEE97}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="I2:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -22158,8 +22099,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D7848AE-C4F9-994D-A0C0-DF82FF688907}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D7848AE-C4F9-994D-A0C0-DF82FF688907}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -22362,8 +22303,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{873546F3-9E5C-524B-B1F1-368C4706C0C0}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{873546F3-9E5C-524B-B1F1-368C4706C0C0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -22566,9 +22507,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{141BEBF4-91A1-E741-B721-77B49C230760}" name="PivotTable6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="Y2:Z7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78DA428E-24E2-A949-92D9-3028B6A44903}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="R2:T7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -22628,65 +22569,59 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -22729,18 +22664,36 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sinker AVG Spin" fld="102" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="In Zone Contact%" fld="50" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Count of In Zone Swing and Miss" fld="51" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -22758,200 +22711,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{283802F7-DC1A-E246-81B0-96FF8856D307}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="V2:W7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="124">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sinker AVG V Break" fld="104" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39C970C8-9E92-214B-8601-BEBA82B8FFC8}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39C970C8-9E92-214B-8601-BEBA82B8FFC8}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="R2:S7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="124">
     <pivotField showAll="0"/>
@@ -23119,6 +22880,393 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE52EAA-FD7E-A848-ACDF-AF1F98B5B35B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="O2:P6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="124">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="slider AVG H Break" fld="79" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9490DC14-2133-514C-89D4-E6D21A0E2911}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="K2:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="124">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of 4-Seam AVG H Break" fld="71" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of 4-Seam AVG V Break" fld="72" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -23273,10 +23421,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F1027D2-DF39-AF4E-97E1-C725BA8CAA52}" name="cortes_nestor_stats" displayName="cortes_nestor_stats" ref="A1:DT5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:DT5" xr:uid="{4F1027D2-DF39-AF4E-97E1-C725BA8CAA52}"/>
   <tableColumns count="124">
-    <tableColumn id="1" xr3:uid="{04CF67C6-3056-0D44-B65F-795B838DEFB5}" uniqueName="1" name="last_name" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8F528393-308F-DB46-AF2D-F6ACBE12E6E0}" uniqueName="2" name="first_name" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{04CF67C6-3056-0D44-B65F-795B838DEFB5}" uniqueName="1" name="last_name" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8F528393-308F-DB46-AF2D-F6ACBE12E6E0}" uniqueName="2" name="first_name" queryTableFieldId="2" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{79208458-0CF9-D34A-AC77-9312AB92EABD}" uniqueName="3" name="player_id" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{547B6AC1-780A-584A-8C10-2A2DBD1E1F23}" uniqueName="4" name="year" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{547B6AC1-780A-584A-8C10-2A2DBD1E1F23}" uniqueName="4" name="year" queryTableFieldId="4" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{EDD6FA7C-01D9-C849-958C-F6A016A81D21}" uniqueName="5" name="games" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{59EDE589-E62B-6A47-ACC4-44ED8D6158C5}" uniqueName="6" name="IP" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{DAA561FF-336F-254B-967A-F9F8E9894A9D}" uniqueName="7" name="pa" queryTableFieldId="7"/>
@@ -23290,10 +23438,10 @@
     <tableColumn id="15" xr3:uid="{88DF4C24-6219-354F-8C76-81C3EB260CF6}" uniqueName="15" name="walk" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{0FE4047B-F609-0E41-B9E4-28A25165EB8E}" uniqueName="16" name="k%" queryTableFieldId="16"/>
     <tableColumn id="17" xr3:uid="{A6165EC7-B001-C040-84C7-0F1457B52E45}" uniqueName="17" name="walk%" queryTableFieldId="17"/>
-    <tableColumn id="124" xr3:uid="{D5E8545E-55B6-D247-A157-00773333AF36}" uniqueName="124" name="K/BB" queryTableFieldId="123" dataDxfId="14">
+    <tableColumn id="124" xr3:uid="{D5E8545E-55B6-D247-A157-00773333AF36}" uniqueName="124" name="K/BB" queryTableFieldId="123" dataDxfId="20">
       <calculatedColumnFormula>cortes_nestor_stats[[#This Row],[strikeout]]/cortes_nestor_stats[[#This Row],[walk]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="125" xr3:uid="{F5A5359D-1DD1-754D-91B3-7E25611B5FAE}" uniqueName="125" name="WHIP" queryTableFieldId="124" dataDxfId="13">
+    <tableColumn id="125" xr3:uid="{F5A5359D-1DD1-754D-91B3-7E25611B5FAE}" uniqueName="125" name="WHIP" queryTableFieldId="124" dataDxfId="19">
       <calculatedColumnFormula>(cortes_nestor_stats[[#This Row],[walk]] + cortes_nestor_stats[[#This Row],[hit]]) / cortes_nestor_stats[[#This Row],[IP]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{F7D97779-7268-0844-9CC8-0B5C3212B362}" uniqueName="18" name="batting_avg" queryTableFieldId="18"/>
@@ -23343,7 +23491,7 @@
     <tableColumn id="62" xr3:uid="{7E3C63D4-D6CE-324C-A161-4DE3266A7772}" uniqueName="62" name="linedrives" queryTableFieldId="62"/>
     <tableColumn id="63" xr3:uid="{BCA645BC-CE74-D340-ABE8-CF28CA03EF35}" uniqueName="63" name="popups%" queryTableFieldId="63"/>
     <tableColumn id="64" xr3:uid="{5ACDB82C-85C9-FC46-9081-A52C2721DBCE}" uniqueName="64" name="popups" queryTableFieldId="64"/>
-    <tableColumn id="65" xr3:uid="{D67C5CCA-B639-7042-9CDA-C29FB7BC207B}" uniqueName="65" name="pitch_hand" queryTableFieldId="65" dataDxfId="12"/>
+    <tableColumn id="65" xr3:uid="{D67C5CCA-B639-7042-9CDA-C29FB7BC207B}" uniqueName="65" name="pitch_hand" queryTableFieldId="65" dataDxfId="18"/>
     <tableColumn id="66" xr3:uid="{A4CA0EC2-C5A2-884F-8A05-B508198742AA}" uniqueName="66" name="arm_angle" queryTableFieldId="66"/>
     <tableColumn id="67" xr3:uid="{03576732-B33C-C24B-B9FD-D677EE2A0197}" uniqueName="67" name="4-Seam%" queryTableFieldId="67"/>
     <tableColumn id="68" xr3:uid="{4D27DB52-C9DB-354A-99D6-BFB182BB6B06}" uniqueName="68" name="4-Seam AVG MPH" queryTableFieldId="68"/>
@@ -23369,22 +23517,22 @@
     <tableColumn id="88" xr3:uid="{D867FAC1-070E-444B-A2C3-59C32AF756C4}" uniqueName="88" name="Change AVG IVB" queryTableFieldId="88"/>
     <tableColumn id="89" xr3:uid="{8367A890-74F0-7743-858A-A0E3D035A6B5}" uniqueName="89" name="Change AVG Break" queryTableFieldId="89"/>
     <tableColumn id="90" xr3:uid="{F9F4A09F-141A-1A49-81AE-4B09B9AA8E2F}" uniqueName="90" name="Change Range MPH" queryTableFieldId="90"/>
-    <tableColumn id="91" xr3:uid="{CDD96913-8A32-2742-B30A-B8970E691567}" uniqueName="91" name="n_cu_formatted" queryTableFieldId="91" dataDxfId="11"/>
-    <tableColumn id="92" xr3:uid="{1EBB15ED-C23B-9C45-89FD-3152B45EF5B4}" uniqueName="92" name="cu_avg_speed" queryTableFieldId="92" dataDxfId="10"/>
-    <tableColumn id="93" xr3:uid="{A4BE7AAF-72BD-114D-9B5A-738D49A06A44}" uniqueName="93" name="cu_avg_spin" queryTableFieldId="93" dataDxfId="9"/>
-    <tableColumn id="94" xr3:uid="{361CC52E-D216-2B44-B035-93501B2A9BC1}" uniqueName="94" name="cu_avg_break_x" queryTableFieldId="94" dataDxfId="8"/>
-    <tableColumn id="95" xr3:uid="{1297E7C7-6C68-0948-BAC1-4D2B9E83B113}" uniqueName="95" name="cu_avg_break_z" queryTableFieldId="95" dataDxfId="7"/>
-    <tableColumn id="96" xr3:uid="{39431767-5FE4-B64B-AD02-9BC77B2630E8}" uniqueName="96" name="cu_avg_break_z_induced" queryTableFieldId="96" dataDxfId="6"/>
-    <tableColumn id="97" xr3:uid="{4DBBC1FC-7DE0-7D44-822A-D80C43566488}" uniqueName="97" name="cu_avg_break" queryTableFieldId="97" dataDxfId="5"/>
-    <tableColumn id="98" xr3:uid="{946A449E-2927-C74A-A649-1CE19E590E12}" uniqueName="98" name="cu_range_speed" queryTableFieldId="98" dataDxfId="4"/>
-    <tableColumn id="99" xr3:uid="{6F7D0F87-247E-1143-AA19-D0607A2255F3}" uniqueName="99" name="n_si_formatted" queryTableFieldId="99" dataDxfId="3"/>
+    <tableColumn id="91" xr3:uid="{CDD96913-8A32-2742-B30A-B8970E691567}" uniqueName="91" name="n_cu_formatted" queryTableFieldId="91" dataDxfId="17"/>
+    <tableColumn id="92" xr3:uid="{1EBB15ED-C23B-9C45-89FD-3152B45EF5B4}" uniqueName="92" name="cu_avg_speed" queryTableFieldId="92" dataDxfId="16"/>
+    <tableColumn id="93" xr3:uid="{A4BE7AAF-72BD-114D-9B5A-738D49A06A44}" uniqueName="93" name="cu_avg_spin" queryTableFieldId="93" dataDxfId="15"/>
+    <tableColumn id="94" xr3:uid="{361CC52E-D216-2B44-B035-93501B2A9BC1}" uniqueName="94" name="cu_avg_break_x" queryTableFieldId="94" dataDxfId="14"/>
+    <tableColumn id="95" xr3:uid="{1297E7C7-6C68-0948-BAC1-4D2B9E83B113}" uniqueName="95" name="cu_avg_break_z" queryTableFieldId="95" dataDxfId="13"/>
+    <tableColumn id="96" xr3:uid="{39431767-5FE4-B64B-AD02-9BC77B2630E8}" uniqueName="96" name="cu_avg_break_z_induced" queryTableFieldId="96" dataDxfId="12"/>
+    <tableColumn id="97" xr3:uid="{4DBBC1FC-7DE0-7D44-822A-D80C43566488}" uniqueName="97" name="cu_avg_break" queryTableFieldId="97" dataDxfId="11"/>
+    <tableColumn id="98" xr3:uid="{946A449E-2927-C74A-A649-1CE19E590E12}" uniqueName="98" name="cu_range_speed" queryTableFieldId="98" dataDxfId="10"/>
+    <tableColumn id="99" xr3:uid="{6F7D0F87-247E-1143-AA19-D0607A2255F3}" uniqueName="99" name="n_si_formatted" queryTableFieldId="99" dataDxfId="9"/>
     <tableColumn id="100" xr3:uid="{7C2058E4-F60B-4D4C-BB18-CDAEAD9CCF51}" uniqueName="100" name="si_avg_speed" queryTableFieldId="100"/>
     <tableColumn id="101" xr3:uid="{D04D3AE4-E675-9A40-9A52-1244F9004C19}" uniqueName="101" name="si_avg_spin" queryTableFieldId="101"/>
     <tableColumn id="102" xr3:uid="{292AA216-D565-5646-A0D7-52FCDFC090B1}" uniqueName="102" name="si_avg_break_x" queryTableFieldId="102"/>
     <tableColumn id="103" xr3:uid="{55208852-A39B-6148-A931-4039C9E9BCF2}" uniqueName="103" name="si_avg_break_z" queryTableFieldId="103"/>
     <tableColumn id="104" xr3:uid="{EC3F1B33-0F01-8D4F-A554-7D0FA6427810}" uniqueName="104" name="si_avg_break_z_induced" queryTableFieldId="104"/>
     <tableColumn id="105" xr3:uid="{545DEB99-A696-B246-B4E2-CCD1E8ECAA11}" uniqueName="105" name="si_avg_break" queryTableFieldId="105"/>
-    <tableColumn id="106" xr3:uid="{06D8F256-8CA4-1B4D-9209-B1F60FBB0852}" uniqueName="106" name="si_range_speed" queryTableFieldId="106" dataDxfId="2"/>
+    <tableColumn id="106" xr3:uid="{06D8F256-8CA4-1B4D-9209-B1F60FBB0852}" uniqueName="106" name="si_range_speed" queryTableFieldId="106" dataDxfId="8"/>
     <tableColumn id="107" xr3:uid="{C62AE9DF-D6C3-C342-8A91-E770A342D431}" uniqueName="107" name="n_fc_formatted" queryTableFieldId="107"/>
     <tableColumn id="108" xr3:uid="{2161391D-8FD5-4D47-B35D-4653C67E6D5F}" uniqueName="108" name="fc_avg_speed" queryTableFieldId="108"/>
     <tableColumn id="109" xr3:uid="{77EF2F8E-7F12-2243-BABB-20247A431987}" uniqueName="109" name="fc_avg_spin" queryTableFieldId="109"/>
@@ -23725,8 +23873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70048234-00B0-C041-9EA8-1F9EFB1969A2}">
   <dimension ref="A1:DT8"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="DN1" sqref="DN1:DQ5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS8" sqref="AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23904,10 +24052,10 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
@@ -24506,25 +24654,25 @@
       </c>
       <c r="CO2" s="6"/>
       <c r="CP2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CQ2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CR2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CS2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CT2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CU2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CV2" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>125</v>
@@ -24879,7 +25027,7 @@
         <v>132</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CX3">
         <v>84.5</v>
@@ -24900,7 +25048,7 @@
         <v>15.2</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="DE3">
         <v>29.8</v>
@@ -25231,28 +25379,28 @@
         <v>1.5</v>
       </c>
       <c r="CO4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CP4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CQ4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CR4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CS4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CT4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CU4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CV4" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CW4" s="1" t="s">
         <v>133</v>
@@ -25276,7 +25424,7 @@
         <v>16.5</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="DE4">
         <v>28.8</v>
@@ -25607,28 +25755,28 @@
         <v>1.5</v>
       </c>
       <c r="CO5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CP5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CQ5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CR5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CS5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CT5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CU5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CV5" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="CW5" s="1" t="s">
         <v>134</v>
@@ -25729,7 +25877,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25765,22 +25913,22 @@
         <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -25909,7 +26057,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25922,13 +26070,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -26011,8 +26159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8A305E-2E2A-C945-ABDB-BAC7898D2FB4}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26056,19 +26204,19 @@
         <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -26094,28 +26242,28 @@
         <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="S2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="T2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -26345,8 +26493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFBD886-1289-6A4C-8ED9-77F5A2ECABD2}">
   <dimension ref="A2:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AV29" sqref="AV29"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26387,82 +26535,82 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="S2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="W2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="Z2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
         <v>138</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AP2" t="s">
         <v>138</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AS2" s="10" t="s">
         <v>117</v>
